--- a/Code/Results/Cases/Case_4_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.044540878975585</v>
+        <v>1.080397090533681</v>
       </c>
       <c r="D2">
-        <v>1.058037639547203</v>
+        <v>1.081885094789044</v>
       </c>
       <c r="E2">
-        <v>1.052445426654528</v>
+        <v>1.084132546534265</v>
       </c>
       <c r="F2">
-        <v>1.062660729066088</v>
+        <v>1.09085830725353</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063251828860736</v>
+        <v>1.061277256252109</v>
       </c>
       <c r="J2">
-        <v>1.065466363551088</v>
+        <v>1.085276829674535</v>
       </c>
       <c r="K2">
-        <v>1.068743566670614</v>
+        <v>1.084554752430571</v>
       </c>
       <c r="L2">
-        <v>1.063219446857538</v>
+        <v>1.086796359566906</v>
       </c>
       <c r="M2">
-        <v>1.073311034851851</v>
+        <v>1.093504784812176</v>
       </c>
       <c r="N2">
-        <v>1.066979447998031</v>
+        <v>1.086818047255665</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052221914422929</v>
+        <v>1.081901435684936</v>
       </c>
       <c r="D3">
-        <v>1.064305572180706</v>
+        <v>1.0831202368343</v>
       </c>
       <c r="E3">
-        <v>1.05965448220678</v>
+        <v>1.085589918653132</v>
       </c>
       <c r="F3">
-        <v>1.069464385572667</v>
+        <v>1.092226158267356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066479613625906</v>
+        <v>1.061821317675753</v>
       </c>
       <c r="J3">
-        <v>1.071383560796058</v>
+        <v>1.086439932652983</v>
       </c>
       <c r="K3">
-        <v>1.074176813610033</v>
+        <v>1.085607415161026</v>
       </c>
       <c r="L3">
-        <v>1.0695769950581</v>
+        <v>1.088071142368297</v>
       </c>
       <c r="M3">
-        <v>1.079279398632262</v>
+        <v>1.094691524689314</v>
       </c>
       <c r="N3">
-        <v>1.072905048341801</v>
+        <v>1.087982801973752</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.057043960067501</v>
+        <v>1.082873402459816</v>
       </c>
       <c r="D4">
-        <v>1.068242612094964</v>
+        <v>1.083918055467445</v>
       </c>
       <c r="E4">
-        <v>1.064185093923153</v>
+        <v>1.086531811769951</v>
       </c>
       <c r="F4">
-        <v>1.07374082649937</v>
+        <v>1.093110105613551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068493994931079</v>
+        <v>1.062171220273791</v>
       </c>
       <c r="J4">
-        <v>1.075093058786176</v>
+        <v>1.087190630320577</v>
       </c>
       <c r="K4">
-        <v>1.077581684366002</v>
+        <v>1.086286589017214</v>
       </c>
       <c r="L4">
-        <v>1.073565988849206</v>
+        <v>1.088894362888205</v>
       </c>
       <c r="M4">
-        <v>1.083023840398691</v>
+        <v>1.095457735714367</v>
       </c>
       <c r="N4">
-        <v>1.076619814244549</v>
+        <v>1.088734565718141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.059037675404797</v>
+        <v>1.08328167856347</v>
       </c>
       <c r="D5">
-        <v>1.069870834105483</v>
+        <v>1.084253128271207</v>
       </c>
       <c r="E5">
-        <v>1.066059422001173</v>
+        <v>1.086927520924199</v>
       </c>
       <c r="F5">
-        <v>1.075510116728476</v>
+        <v>1.093481448970253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069323923998766</v>
+        <v>1.062317809486395</v>
       </c>
       <c r="J5">
-        <v>1.076625470524871</v>
+        <v>1.0875057724113</v>
       </c>
       <c r="K5">
-        <v>1.078987938787966</v>
+        <v>1.086571647157218</v>
       </c>
       <c r="L5">
-        <v>1.07521469065753</v>
+        <v>1.089240055841553</v>
       </c>
       <c r="M5">
-        <v>1.084571357139024</v>
+        <v>1.095779451761374</v>
       </c>
       <c r="N5">
-        <v>1.078154402183685</v>
+        <v>1.08905015534678</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.059370520699928</v>
+        <v>1.083350210264284</v>
       </c>
       <c r="D6">
-        <v>1.070142683506247</v>
+        <v>1.08430936926037</v>
       </c>
       <c r="E6">
-        <v>1.066372399469055</v>
+        <v>1.086993947012195</v>
       </c>
       <c r="F6">
-        <v>1.075805560629955</v>
+        <v>1.093543783597034</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069462304134486</v>
+        <v>1.062342392645373</v>
       </c>
       <c r="J6">
-        <v>1.076881223778555</v>
+        <v>1.087558659855412</v>
       </c>
       <c r="K6">
-        <v>1.079222617929294</v>
+        <v>1.086619482456765</v>
       </c>
       <c r="L6">
-        <v>1.075489901123662</v>
+        <v>1.089298076571082</v>
       </c>
       <c r="M6">
-        <v>1.084829670232324</v>
+        <v>1.095833446052935</v>
       </c>
       <c r="N6">
-        <v>1.078410518636323</v>
+        <v>1.089103117897129</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.057070729215643</v>
+        <v>1.082878859187091</v>
       </c>
       <c r="D7">
-        <v>1.068264472301743</v>
+        <v>1.083922534017443</v>
       </c>
       <c r="E7">
-        <v>1.064210255774342</v>
+        <v>1.08653710027938</v>
       </c>
       <c r="F7">
-        <v>1.073764577865817</v>
+        <v>1.093115068568067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068505149883581</v>
+        <v>1.062173181005826</v>
       </c>
       <c r="J7">
-        <v>1.075113639380402</v>
+        <v>1.087194843030741</v>
       </c>
       <c r="K7">
-        <v>1.077600571909031</v>
+        <v>1.086290399805173</v>
       </c>
       <c r="L7">
-        <v>1.073588127954635</v>
+        <v>1.088898983575418</v>
       </c>
       <c r="M7">
-        <v>1.083044621228198</v>
+        <v>1.095462036061445</v>
       </c>
       <c r="N7">
-        <v>1.07664042406558</v>
+        <v>1.088738784410836</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.047168633235373</v>
+        <v>1.080905794611791</v>
       </c>
       <c r="D8">
-        <v>1.060181453693225</v>
+        <v>1.082302810033884</v>
       </c>
       <c r="E8">
-        <v>1.05491064640405</v>
+        <v>1.084625308877497</v>
       </c>
       <c r="F8">
-        <v>1.064987169372676</v>
+        <v>1.091320819164982</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064358574110003</v>
+        <v>1.061461569491328</v>
       </c>
       <c r="J8">
-        <v>1.067491761953136</v>
+        <v>1.085670304103522</v>
       </c>
       <c r="K8">
-        <v>1.070603564327549</v>
+        <v>1.084910915452747</v>
       </c>
       <c r="L8">
-        <v>1.065394848663854</v>
+        <v>1.087227523400259</v>
       </c>
       <c r="M8">
-        <v>1.075353329321928</v>
+        <v>1.093906202026862</v>
       </c>
       <c r="N8">
-        <v>1.069007722698126</v>
+        <v>1.087212080463474</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.028486770691661</v>
+        <v>1.077417609657249</v>
       </c>
       <c r="D9">
-        <v>1.044953416264352</v>
+        <v>1.079437685772858</v>
       </c>
       <c r="E9">
-        <v>1.037408149579408</v>
+        <v>1.081247591410162</v>
       </c>
       <c r="F9">
-        <v>1.048474083005442</v>
+        <v>1.08815010653601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056441124296438</v>
+        <v>1.060191089577746</v>
       </c>
       <c r="J9">
-        <v>1.05307219210584</v>
+        <v>1.082969013248545</v>
       </c>
       <c r="K9">
-        <v>1.057356954199243</v>
+        <v>1.082464784354582</v>
       </c>
       <c r="L9">
-        <v>1.049922121157048</v>
+        <v>1.084269302454855</v>
       </c>
       <c r="M9">
-        <v>1.060826780817832</v>
+        <v>1.091151449904067</v>
       </c>
       <c r="N9">
-        <v>1.054567675407699</v>
+        <v>1.08450695346564</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01504705731787</v>
+        <v>1.075084036557334</v>
       </c>
       <c r="D10">
-        <v>1.034020621696887</v>
+        <v>1.077519901165445</v>
       </c>
       <c r="E10">
-        <v>1.024850988792397</v>
+        <v>1.078989393989854</v>
       </c>
       <c r="F10">
-        <v>1.036633932531586</v>
+        <v>1.086029875614793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050685662296522</v>
+        <v>1.059332809152863</v>
       </c>
       <c r="J10">
-        <v>1.042676137175715</v>
+        <v>1.081157814635211</v>
       </c>
       <c r="K10">
-        <v>1.04780164037658</v>
+        <v>1.080823430467259</v>
       </c>
       <c r="L10">
-        <v>1.038785593677565</v>
+        <v>1.082288114867107</v>
       </c>
       <c r="M10">
-        <v>1.050371819698805</v>
+        <v>1.089305756579179</v>
       </c>
       <c r="N10">
-        <v>1.04415685688713</v>
+        <v>1.082693182742527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008952733304953</v>
+        <v>1.07407154642895</v>
       </c>
       <c r="D11">
-        <v>1.029070257353724</v>
+        <v>1.076687578307957</v>
       </c>
       <c r="E11">
-        <v>1.019166270881693</v>
+        <v>1.07800996441811</v>
       </c>
       <c r="F11">
-        <v>1.03127620331946</v>
+        <v>1.085110187955056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048062826241619</v>
+        <v>1.058958444967629</v>
       </c>
       <c r="J11">
-        <v>1.037957753314823</v>
+        <v>1.080371015558477</v>
       </c>
       <c r="K11">
-        <v>1.043464013017458</v>
+        <v>1.080110122249814</v>
       </c>
       <c r="L11">
-        <v>1.033735570034672</v>
+        <v>1.081428011438875</v>
       </c>
       <c r="M11">
-        <v>1.045631454039917</v>
+        <v>1.088504295706209</v>
       </c>
       <c r="N11">
-        <v>1.039431772379949</v>
+        <v>1.081905266320858</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006643661206045</v>
+        <v>1.073695147516551</v>
       </c>
       <c r="D12">
-        <v>1.027195881471679</v>
+        <v>1.076378123182923</v>
       </c>
       <c r="E12">
-        <v>1.017013933482323</v>
+        <v>1.077645910119893</v>
       </c>
       <c r="F12">
-        <v>1.029248096615821</v>
+        <v>1.084768325512289</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047067226595177</v>
+        <v>1.058818976763353</v>
       </c>
       <c r="J12">
-        <v>1.036169486697612</v>
+        <v>1.080078375214934</v>
       </c>
       <c r="K12">
-        <v>1.041819962333407</v>
+        <v>1.079844772431785</v>
       </c>
       <c r="L12">
-        <v>1.031822274730706</v>
+        <v>1.081108187531941</v>
       </c>
       <c r="M12">
-        <v>1.043835611878337</v>
+        <v>1.088206250832635</v>
       </c>
       <c r="N12">
-        <v>1.037640966219024</v>
+        <v>1.081612210394461</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007141089632924</v>
+        <v>1.073775900758436</v>
       </c>
       <c r="D13">
-        <v>1.027599605968976</v>
+        <v>1.076444515737291</v>
       </c>
       <c r="E13">
-        <v>1.017477525919859</v>
+        <v>1.077724012467584</v>
       </c>
       <c r="F13">
-        <v>1.029684910546734</v>
+        <v>1.084841667570908</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047281783036017</v>
+        <v>1.058848911898598</v>
       </c>
       <c r="J13">
-        <v>1.036554743041016</v>
+        <v>1.080141165235765</v>
       </c>
       <c r="K13">
-        <v>1.042174152947994</v>
+        <v>1.079901708858885</v>
       </c>
       <c r="L13">
-        <v>1.032234436858475</v>
+        <v>1.081176806492935</v>
       </c>
       <c r="M13">
-        <v>1.044222465453905</v>
+        <v>1.088270198260853</v>
       </c>
       <c r="N13">
-        <v>1.038026769670625</v>
+        <v>1.081675089584323</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008762815763085</v>
+        <v>1.074040439654842</v>
       </c>
       <c r="D14">
-        <v>1.028916066167989</v>
+        <v>1.076662004672831</v>
       </c>
       <c r="E14">
-        <v>1.018989212538172</v>
+        <v>1.077979876733114</v>
       </c>
       <c r="F14">
-        <v>1.031109355531078</v>
+        <v>1.085081934629571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047980976250183</v>
+        <v>1.058946924921546</v>
       </c>
       <c r="J14">
-        <v>1.037810681115237</v>
+        <v>1.080346833773774</v>
       </c>
       <c r="K14">
-        <v>1.043328803186659</v>
+        <v>1.080088196452246</v>
       </c>
       <c r="L14">
-        <v>1.033578201702251</v>
+        <v>1.081401581738174</v>
       </c>
       <c r="M14">
-        <v>1.045483743235781</v>
+        <v>1.088479666333033</v>
       </c>
       <c r="N14">
-        <v>1.03928449132097</v>
+        <v>1.081881050195246</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.009755871520902</v>
+        <v>1.074203388793024</v>
       </c>
       <c r="D15">
-        <v>1.029722365581943</v>
+        <v>1.076795967716766</v>
       </c>
       <c r="E15">
-        <v>1.019915092435404</v>
+        <v>1.078137489715123</v>
       </c>
       <c r="F15">
-        <v>1.031981859789163</v>
+        <v>1.085229937821398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048408886043898</v>
+        <v>1.059007259189061</v>
       </c>
       <c r="J15">
-        <v>1.038579683233261</v>
+        <v>1.080473501311863</v>
       </c>
       <c r="K15">
-        <v>1.044035776598487</v>
+        <v>1.080203045037818</v>
       </c>
       <c r="L15">
-        <v>1.034401066509066</v>
+        <v>1.081540027490668</v>
       </c>
       <c r="M15">
-        <v>1.04625611539866</v>
+        <v>1.088608680398082</v>
       </c>
       <c r="N15">
-        <v>1.040054585510207</v>
+        <v>1.082007897615768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.015445391334908</v>
+        <v>1.075151188507106</v>
       </c>
       <c r="D16">
-        <v>1.034344348232014</v>
+        <v>1.077575098909974</v>
       </c>
       <c r="E16">
-        <v>1.025222755105506</v>
+        <v>1.079054360803198</v>
       </c>
       <c r="F16">
-        <v>1.036984369584877</v>
+        <v>1.086090877656081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05085683559093</v>
+        <v>1.059357596794851</v>
       </c>
       <c r="J16">
-        <v>1.042984459415779</v>
+        <v>1.08120997784318</v>
       </c>
       <c r="K16">
-        <v>1.048085067782236</v>
+        <v>1.080870715272627</v>
       </c>
       <c r="L16">
-        <v>1.039115678241819</v>
+        <v>1.082345149369125</v>
       </c>
       <c r="M16">
-        <v>1.05068167995278</v>
+        <v>1.089358898650154</v>
       </c>
       <c r="N16">
-        <v>1.044465616980139</v>
+        <v>1.082745420028235</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.018937983657106</v>
+        <v>1.07574516646363</v>
       </c>
       <c r="D17">
-        <v>1.037183611458679</v>
+        <v>1.078063311544075</v>
       </c>
       <c r="E17">
-        <v>1.028483475684561</v>
+        <v>1.07962905183428</v>
       </c>
       <c r="F17">
-        <v>1.040058290812225</v>
+        <v>1.086630485472644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052356231794223</v>
+        <v>1.059576622761221</v>
       </c>
       <c r="J17">
-        <v>1.045687364253414</v>
+        <v>1.081671265793235</v>
       </c>
       <c r="K17">
-        <v>1.050569642916479</v>
+        <v>1.081288829157064</v>
       </c>
       <c r="L17">
-        <v>1.042009861417958</v>
+        <v>1.082849577278712</v>
       </c>
       <c r="M17">
-        <v>1.053398607767354</v>
+        <v>1.089828880125562</v>
       </c>
       <c r="N17">
-        <v>1.047172360252671</v>
+        <v>1.083207363060089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.020948938415826</v>
+        <v>1.076091427762935</v>
       </c>
       <c r="D18">
-        <v>1.038819055249628</v>
+        <v>1.078347893918704</v>
       </c>
       <c r="E18">
-        <v>1.030361797853916</v>
+        <v>1.079964104083607</v>
       </c>
       <c r="F18">
-        <v>1.041829228148693</v>
+        <v>1.086945074366186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053218323290375</v>
+        <v>1.059704114404715</v>
       </c>
       <c r="J18">
-        <v>1.047243230564258</v>
+        <v>1.081940082820943</v>
       </c>
       <c r="K18">
-        <v>1.051999752978115</v>
+        <v>1.081532458317798</v>
       </c>
       <c r="L18">
-        <v>1.043676248817994</v>
+        <v>1.083143586282756</v>
       </c>
       <c r="M18">
-        <v>1.054962989014138</v>
+        <v>1.09010279442142</v>
       </c>
       <c r="N18">
-        <v>1.048730436072137</v>
+        <v>1.083476561838811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021630290515237</v>
+        <v>1.076209460941203</v>
       </c>
       <c r="D19">
-        <v>1.039373283685734</v>
+        <v>1.078444898174408</v>
       </c>
       <c r="E19">
-        <v>1.030998356095689</v>
+        <v>1.080078322136813</v>
       </c>
       <c r="F19">
-        <v>1.04242942942488</v>
+        <v>1.087052314934265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053510206065498</v>
+        <v>1.059747541343637</v>
       </c>
       <c r="J19">
-        <v>1.047770317803492</v>
+        <v>1.082031701226114</v>
       </c>
       <c r="K19">
-        <v>1.052484222818924</v>
+        <v>1.081615487413619</v>
       </c>
       <c r="L19">
-        <v>1.044240848407155</v>
+        <v>1.083243799461302</v>
       </c>
       <c r="M19">
-        <v>1.055493034884903</v>
+        <v>1.090196155347464</v>
       </c>
       <c r="N19">
-        <v>1.049258271835708</v>
+        <v>1.083568310352625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018566000841403</v>
+        <v>1.075681458587114</v>
       </c>
       <c r="D20">
-        <v>1.036881142318494</v>
+        <v>1.078010950006632</v>
       </c>
       <c r="E20">
-        <v>1.028136096970447</v>
+        <v>1.079567409046683</v>
       </c>
       <c r="F20">
-        <v>1.039730789326011</v>
+        <v>1.086572606766711</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052196663497724</v>
+        <v>1.059553150525028</v>
       </c>
       <c r="J20">
-        <v>1.045399529364744</v>
+        <v>1.08162179929363</v>
       </c>
       <c r="K20">
-        <v>1.050305066224137</v>
+        <v>1.08124399535516</v>
       </c>
       <c r="L20">
-        <v>1.041701613891302</v>
+        <v>1.082795479255913</v>
       </c>
       <c r="M20">
-        <v>1.053109233235195</v>
+        <v>1.089778478151997</v>
       </c>
       <c r="N20">
-        <v>1.046884116605443</v>
+        <v>1.083157826312381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008286545787864</v>
+        <v>1.073962548310367</v>
       </c>
       <c r="D21">
-        <v>1.028529410720914</v>
+        <v>1.076597967752451</v>
       </c>
       <c r="E21">
-        <v>1.0185452157085</v>
+        <v>1.077904538064054</v>
       </c>
       <c r="F21">
-        <v>1.030690970102677</v>
+        <v>1.085011188913585</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047775685997888</v>
+        <v>1.058918073949852</v>
       </c>
       <c r="J21">
-        <v>1.037441849504202</v>
+        <v>1.080286280284821</v>
       </c>
       <c r="K21">
-        <v>1.042989719003818</v>
+        <v>1.08003329146784</v>
       </c>
       <c r="L21">
-        <v>1.033183559814169</v>
+        <v>1.081335400563201</v>
       </c>
       <c r="M21">
-        <v>1.045113322409615</v>
+        <v>1.088417992827951</v>
       </c>
       <c r="N21">
-        <v>1.038915135926742</v>
+        <v>1.081820410713394</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001558505517067</v>
+        <v>1.072879974276459</v>
       </c>
       <c r="D22">
-        <v>1.023070589135604</v>
+        <v>1.075707869212168</v>
       </c>
       <c r="E22">
-        <v>1.012276941837607</v>
+        <v>1.076857571549815</v>
       </c>
       <c r="F22">
-        <v>1.024785388820776</v>
+        <v>1.084028016490507</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044871416978386</v>
+        <v>1.05851638669409</v>
       </c>
       <c r="J22">
-        <v>1.032230446146935</v>
+        <v>1.079444337444002</v>
       </c>
       <c r="K22">
-        <v>1.038198460988982</v>
+        <v>1.079269783248498</v>
       </c>
       <c r="L22">
-        <v>1.027609051283404</v>
+        <v>1.080415401877246</v>
       </c>
       <c r="M22">
-        <v>1.039881329776911</v>
+        <v>1.087560592986139</v>
       </c>
       <c r="N22">
-        <v>1.033696331778951</v>
+        <v>1.080977272217168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00515179365458</v>
+        <v>1.073454043403871</v>
       </c>
       <c r="D23">
-        <v>1.025985247448641</v>
+        <v>1.076179890654432</v>
       </c>
       <c r="E23">
-        <v>1.015623781721688</v>
+        <v>1.07741272873158</v>
       </c>
       <c r="F23">
-        <v>1.027938312456325</v>
+        <v>1.084549354327212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046423477902716</v>
+        <v>1.058729556392375</v>
       </c>
       <c r="J23">
-        <v>1.03501397390822</v>
+        <v>1.079890882741924</v>
       </c>
       <c r="K23">
-        <v>1.040757615536192</v>
+        <v>1.079674752572832</v>
       </c>
       <c r="L23">
-        <v>1.030586159373041</v>
+        <v>1.080903301578102</v>
       </c>
       <c r="M23">
-        <v>1.042675422688885</v>
+        <v>1.088015309469454</v>
       </c>
       <c r="N23">
-        <v>1.036483812468932</v>
+        <v>1.081424451660633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018734164575098</v>
+        <v>1.075710246040096</v>
       </c>
       <c r="D24">
-        <v>1.037017878691336</v>
+        <v>1.078034610499718</v>
       </c>
       <c r="E24">
-        <v>1.028293135125266</v>
+        <v>1.079595263249186</v>
       </c>
       <c r="F24">
-        <v>1.039878840980537</v>
+        <v>1.086598760142468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05226880398417</v>
+        <v>1.059563757429447</v>
       </c>
       <c r="J24">
-        <v>1.045529653279185</v>
+        <v>1.081644151831044</v>
       </c>
       <c r="K24">
-        <v>1.050424675862138</v>
+        <v>1.081264254591849</v>
       </c>
       <c r="L24">
-        <v>1.041840964623917</v>
+        <v>1.08281992448919</v>
       </c>
       <c r="M24">
-        <v>1.053240051815725</v>
+        <v>1.089801253308023</v>
       </c>
       <c r="N24">
-        <v>1.047014425310769</v>
+        <v>1.083180210592962</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.033477566605547</v>
+        <v>1.078320786026684</v>
       </c>
       <c r="D25">
-        <v>1.049018316562885</v>
+        <v>1.080179722194668</v>
       </c>
       <c r="E25">
-        <v>1.042078469126068</v>
+        <v>1.082121908088314</v>
       </c>
       <c r="F25">
-        <v>1.05287937746891</v>
+        <v>1.088970917168651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058566731735355</v>
+        <v>1.060521516406877</v>
       </c>
       <c r="J25">
-        <v>1.056928515202752</v>
+        <v>1.083669158177244</v>
       </c>
       <c r="K25">
-        <v>1.060900523421151</v>
+        <v>1.083099013262059</v>
       </c>
       <c r="L25">
-        <v>1.054056890571195</v>
+        <v>1.085035639562294</v>
       </c>
       <c r="M25">
-        <v>1.06470874556854</v>
+        <v>1.091865214825236</v>
       </c>
       <c r="N25">
-        <v>1.058429474925735</v>
+        <v>1.085208092680445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080397090533681</v>
+        <v>1.044540878975584</v>
       </c>
       <c r="D2">
-        <v>1.081885094789044</v>
+        <v>1.058037639547202</v>
       </c>
       <c r="E2">
-        <v>1.084132546534265</v>
+        <v>1.052445426654527</v>
       </c>
       <c r="F2">
-        <v>1.09085830725353</v>
+        <v>1.062660729066087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061277256252109</v>
+        <v>1.063251828860736</v>
       </c>
       <c r="J2">
-        <v>1.085276829674535</v>
+        <v>1.065466363551088</v>
       </c>
       <c r="K2">
-        <v>1.084554752430571</v>
+        <v>1.068743566670613</v>
       </c>
       <c r="L2">
-        <v>1.086796359566906</v>
+        <v>1.063219446857536</v>
       </c>
       <c r="M2">
-        <v>1.093504784812176</v>
+        <v>1.07331103485185</v>
       </c>
       <c r="N2">
-        <v>1.086818047255665</v>
+        <v>1.06697944799803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081901435684936</v>
+        <v>1.052221914422926</v>
       </c>
       <c r="D3">
-        <v>1.0831202368343</v>
+        <v>1.064305572180704</v>
       </c>
       <c r="E3">
-        <v>1.085589918653132</v>
+        <v>1.059654482206778</v>
       </c>
       <c r="F3">
-        <v>1.092226158267356</v>
+        <v>1.069464385572665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061821317675753</v>
+        <v>1.066479613625905</v>
       </c>
       <c r="J3">
-        <v>1.086439932652983</v>
+        <v>1.071383560796056</v>
       </c>
       <c r="K3">
-        <v>1.085607415161026</v>
+        <v>1.074176813610031</v>
       </c>
       <c r="L3">
-        <v>1.088071142368297</v>
+        <v>1.069576995058098</v>
       </c>
       <c r="M3">
-        <v>1.094691524689314</v>
+        <v>1.07927939863226</v>
       </c>
       <c r="N3">
-        <v>1.087982801973752</v>
+        <v>1.072905048341798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.082873402459816</v>
+        <v>1.057043960067501</v>
       </c>
       <c r="D4">
-        <v>1.083918055467445</v>
+        <v>1.068242612094964</v>
       </c>
       <c r="E4">
-        <v>1.086531811769951</v>
+        <v>1.064185093923154</v>
       </c>
       <c r="F4">
-        <v>1.093110105613551</v>
+        <v>1.07374082649937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062171220273791</v>
+        <v>1.068493994931079</v>
       </c>
       <c r="J4">
-        <v>1.087190630320577</v>
+        <v>1.075093058786176</v>
       </c>
       <c r="K4">
-        <v>1.086286589017214</v>
+        <v>1.077581684366002</v>
       </c>
       <c r="L4">
-        <v>1.088894362888205</v>
+        <v>1.073565988849206</v>
       </c>
       <c r="M4">
-        <v>1.095457735714367</v>
+        <v>1.083023840398691</v>
       </c>
       <c r="N4">
-        <v>1.088734565718141</v>
+        <v>1.07661981424455</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.08328167856347</v>
+        <v>1.059037675404798</v>
       </c>
       <c r="D5">
-        <v>1.084253128271207</v>
+        <v>1.069870834105483</v>
       </c>
       <c r="E5">
-        <v>1.086927520924199</v>
+        <v>1.066059422001173</v>
       </c>
       <c r="F5">
-        <v>1.093481448970253</v>
+        <v>1.075510116728476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062317809486395</v>
+        <v>1.069323923998766</v>
       </c>
       <c r="J5">
-        <v>1.0875057724113</v>
+        <v>1.076625470524872</v>
       </c>
       <c r="K5">
-        <v>1.086571647157218</v>
+        <v>1.078987938787967</v>
       </c>
       <c r="L5">
-        <v>1.089240055841553</v>
+        <v>1.07521469065753</v>
       </c>
       <c r="M5">
-        <v>1.095779451761374</v>
+        <v>1.084571357139025</v>
       </c>
       <c r="N5">
-        <v>1.08905015534678</v>
+        <v>1.078154402183685</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083350210264284</v>
+        <v>1.059370520699928</v>
       </c>
       <c r="D6">
-        <v>1.08430936926037</v>
+        <v>1.070142683506246</v>
       </c>
       <c r="E6">
-        <v>1.086993947012195</v>
+        <v>1.066372399469054</v>
       </c>
       <c r="F6">
-        <v>1.093543783597034</v>
+        <v>1.075805560629955</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062342392645373</v>
+        <v>1.069462304134486</v>
       </c>
       <c r="J6">
-        <v>1.087558659855412</v>
+        <v>1.076881223778554</v>
       </c>
       <c r="K6">
-        <v>1.086619482456765</v>
+        <v>1.079222617929294</v>
       </c>
       <c r="L6">
-        <v>1.089298076571082</v>
+        <v>1.075489901123661</v>
       </c>
       <c r="M6">
-        <v>1.095833446052935</v>
+        <v>1.084829670232323</v>
       </c>
       <c r="N6">
-        <v>1.089103117897129</v>
+        <v>1.078410518636322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082878859187091</v>
+        <v>1.057070729215645</v>
       </c>
       <c r="D7">
-        <v>1.083922534017443</v>
+        <v>1.068264472301744</v>
       </c>
       <c r="E7">
-        <v>1.08653710027938</v>
+        <v>1.064210255774344</v>
       </c>
       <c r="F7">
-        <v>1.093115068568067</v>
+        <v>1.073764577865819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062173181005826</v>
+        <v>1.068505149883582</v>
       </c>
       <c r="J7">
-        <v>1.087194843030741</v>
+        <v>1.075113639380403</v>
       </c>
       <c r="K7">
-        <v>1.086290399805173</v>
+        <v>1.077600571909032</v>
       </c>
       <c r="L7">
-        <v>1.088898983575418</v>
+        <v>1.073588127954637</v>
       </c>
       <c r="M7">
-        <v>1.095462036061445</v>
+        <v>1.0830446212282</v>
       </c>
       <c r="N7">
-        <v>1.088738784410836</v>
+        <v>1.076640424065582</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.080905794611791</v>
+        <v>1.047168633235373</v>
       </c>
       <c r="D8">
-        <v>1.082302810033884</v>
+        <v>1.060181453693224</v>
       </c>
       <c r="E8">
-        <v>1.084625308877497</v>
+        <v>1.054910646404049</v>
       </c>
       <c r="F8">
-        <v>1.091320819164982</v>
+        <v>1.064987169372675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061461569491328</v>
+        <v>1.064358574110002</v>
       </c>
       <c r="J8">
-        <v>1.085670304103522</v>
+        <v>1.067491761953135</v>
       </c>
       <c r="K8">
-        <v>1.084910915452747</v>
+        <v>1.070603564327548</v>
       </c>
       <c r="L8">
-        <v>1.087227523400259</v>
+        <v>1.065394848663854</v>
       </c>
       <c r="M8">
-        <v>1.093906202026862</v>
+        <v>1.075353329321928</v>
       </c>
       <c r="N8">
-        <v>1.087212080463474</v>
+        <v>1.069007722698125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.077417609657249</v>
+        <v>1.028486770691663</v>
       </c>
       <c r="D9">
-        <v>1.079437685772858</v>
+        <v>1.044953416264354</v>
       </c>
       <c r="E9">
-        <v>1.081247591410162</v>
+        <v>1.037408149579409</v>
       </c>
       <c r="F9">
-        <v>1.08815010653601</v>
+        <v>1.048474083005444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060191089577746</v>
+        <v>1.056441124296439</v>
       </c>
       <c r="J9">
-        <v>1.082969013248545</v>
+        <v>1.053072192105841</v>
       </c>
       <c r="K9">
-        <v>1.082464784354582</v>
+        <v>1.057356954199244</v>
       </c>
       <c r="L9">
-        <v>1.084269302454855</v>
+        <v>1.04992212115705</v>
       </c>
       <c r="M9">
-        <v>1.091151449904067</v>
+        <v>1.060826780817834</v>
       </c>
       <c r="N9">
-        <v>1.08450695346564</v>
+        <v>1.0545676754077</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075084036557334</v>
+        <v>1.015047057317871</v>
       </c>
       <c r="D10">
-        <v>1.077519901165445</v>
+        <v>1.034020621696888</v>
       </c>
       <c r="E10">
-        <v>1.078989393989854</v>
+        <v>1.024850988792399</v>
       </c>
       <c r="F10">
-        <v>1.086029875614793</v>
+        <v>1.036633932531587</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059332809152863</v>
+        <v>1.050685662296523</v>
       </c>
       <c r="J10">
-        <v>1.081157814635211</v>
+        <v>1.042676137175717</v>
       </c>
       <c r="K10">
-        <v>1.080823430467259</v>
+        <v>1.047801640376581</v>
       </c>
       <c r="L10">
-        <v>1.082288114867107</v>
+        <v>1.038785593677567</v>
       </c>
       <c r="M10">
-        <v>1.089305756579179</v>
+        <v>1.050371819698807</v>
       </c>
       <c r="N10">
-        <v>1.082693182742527</v>
+        <v>1.044156856887131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.07407154642895</v>
+        <v>1.008952733304952</v>
       </c>
       <c r="D11">
-        <v>1.076687578307957</v>
+        <v>1.029070257353723</v>
       </c>
       <c r="E11">
-        <v>1.07800996441811</v>
+        <v>1.019166270881692</v>
       </c>
       <c r="F11">
-        <v>1.085110187955056</v>
+        <v>1.031276203319459</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058958444967629</v>
+        <v>1.048062826241619</v>
       </c>
       <c r="J11">
-        <v>1.080371015558477</v>
+        <v>1.037957753314822</v>
       </c>
       <c r="K11">
-        <v>1.080110122249814</v>
+        <v>1.043464013017457</v>
       </c>
       <c r="L11">
-        <v>1.081428011438875</v>
+        <v>1.033735570034671</v>
       </c>
       <c r="M11">
-        <v>1.088504295706209</v>
+        <v>1.045631454039916</v>
       </c>
       <c r="N11">
-        <v>1.081905266320858</v>
+        <v>1.039431772379947</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.073695147516551</v>
+        <v>1.006643661206045</v>
       </c>
       <c r="D12">
-        <v>1.076378123182923</v>
+        <v>1.027195881471679</v>
       </c>
       <c r="E12">
-        <v>1.077645910119893</v>
+        <v>1.017013933482324</v>
       </c>
       <c r="F12">
-        <v>1.084768325512289</v>
+        <v>1.029248096615822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058818976763353</v>
+        <v>1.047067226595177</v>
       </c>
       <c r="J12">
-        <v>1.080078375214934</v>
+        <v>1.036169486697613</v>
       </c>
       <c r="K12">
-        <v>1.079844772431785</v>
+        <v>1.041819962333408</v>
       </c>
       <c r="L12">
-        <v>1.081108187531941</v>
+        <v>1.031822274730707</v>
       </c>
       <c r="M12">
-        <v>1.088206250832635</v>
+        <v>1.043835611878338</v>
       </c>
       <c r="N12">
-        <v>1.081612210394461</v>
+        <v>1.037640966219025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.073775900758436</v>
+        <v>1.007141089632926</v>
       </c>
       <c r="D13">
-        <v>1.076444515737291</v>
+        <v>1.027599605968978</v>
       </c>
       <c r="E13">
-        <v>1.077724012467584</v>
+        <v>1.017477525919861</v>
       </c>
       <c r="F13">
-        <v>1.084841667570908</v>
+        <v>1.029684910546736</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058848911898598</v>
+        <v>1.047281783036018</v>
       </c>
       <c r="J13">
-        <v>1.080141165235765</v>
+        <v>1.036554743041018</v>
       </c>
       <c r="K13">
-        <v>1.079901708858885</v>
+        <v>1.042174152947996</v>
       </c>
       <c r="L13">
-        <v>1.081176806492935</v>
+        <v>1.032234436858477</v>
       </c>
       <c r="M13">
-        <v>1.088270198260853</v>
+        <v>1.044222465453907</v>
       </c>
       <c r="N13">
-        <v>1.081675089584323</v>
+        <v>1.038026769670627</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.074040439654842</v>
+        <v>1.008762815763087</v>
       </c>
       <c r="D14">
-        <v>1.076662004672831</v>
+        <v>1.028916066167991</v>
       </c>
       <c r="E14">
-        <v>1.077979876733114</v>
+        <v>1.018989212538173</v>
       </c>
       <c r="F14">
-        <v>1.085081934629571</v>
+        <v>1.031109355531079</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058946924921546</v>
+        <v>1.047980976250184</v>
       </c>
       <c r="J14">
-        <v>1.080346833773774</v>
+        <v>1.037810681115238</v>
       </c>
       <c r="K14">
-        <v>1.080088196452246</v>
+        <v>1.04332880318666</v>
       </c>
       <c r="L14">
-        <v>1.081401581738174</v>
+        <v>1.033578201702252</v>
       </c>
       <c r="M14">
-        <v>1.088479666333033</v>
+        <v>1.045483743235783</v>
       </c>
       <c r="N14">
-        <v>1.081881050195246</v>
+        <v>1.039284491320971</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074203388793024</v>
+        <v>1.009755871520901</v>
       </c>
       <c r="D15">
-        <v>1.076795967716766</v>
+        <v>1.029722365581942</v>
       </c>
       <c r="E15">
-        <v>1.078137489715123</v>
+        <v>1.019915092435402</v>
       </c>
       <c r="F15">
-        <v>1.085229937821398</v>
+        <v>1.031981859789162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059007259189061</v>
+        <v>1.048408886043898</v>
       </c>
       <c r="J15">
-        <v>1.080473501311863</v>
+        <v>1.03857968323326</v>
       </c>
       <c r="K15">
-        <v>1.080203045037818</v>
+        <v>1.044035776598486</v>
       </c>
       <c r="L15">
-        <v>1.081540027490668</v>
+        <v>1.034401066509065</v>
       </c>
       <c r="M15">
-        <v>1.088608680398082</v>
+        <v>1.04625611539866</v>
       </c>
       <c r="N15">
-        <v>1.082007897615768</v>
+        <v>1.040054585510206</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075151188507106</v>
+        <v>1.015445391334907</v>
       </c>
       <c r="D16">
-        <v>1.077575098909974</v>
+        <v>1.034344348232013</v>
       </c>
       <c r="E16">
-        <v>1.079054360803198</v>
+        <v>1.025222755105506</v>
       </c>
       <c r="F16">
-        <v>1.086090877656081</v>
+        <v>1.036984369584877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059357596794851</v>
+        <v>1.050856835590929</v>
       </c>
       <c r="J16">
-        <v>1.08120997784318</v>
+        <v>1.042984459415778</v>
       </c>
       <c r="K16">
-        <v>1.080870715272627</v>
+        <v>1.048085067782236</v>
       </c>
       <c r="L16">
-        <v>1.082345149369125</v>
+        <v>1.039115678241819</v>
       </c>
       <c r="M16">
-        <v>1.089358898650154</v>
+        <v>1.05068167995278</v>
       </c>
       <c r="N16">
-        <v>1.082745420028235</v>
+        <v>1.044465616980138</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07574516646363</v>
+        <v>1.018937983657107</v>
       </c>
       <c r="D17">
-        <v>1.078063311544075</v>
+        <v>1.03718361145868</v>
       </c>
       <c r="E17">
-        <v>1.07962905183428</v>
+        <v>1.028483475684562</v>
       </c>
       <c r="F17">
-        <v>1.086630485472644</v>
+        <v>1.040058290812226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059576622761221</v>
+        <v>1.052356231794223</v>
       </c>
       <c r="J17">
-        <v>1.081671265793235</v>
+        <v>1.045687364253416</v>
       </c>
       <c r="K17">
-        <v>1.081288829157064</v>
+        <v>1.050569642916481</v>
       </c>
       <c r="L17">
-        <v>1.082849577278712</v>
+        <v>1.042009861417959</v>
       </c>
       <c r="M17">
-        <v>1.089828880125562</v>
+        <v>1.053398607767355</v>
       </c>
       <c r="N17">
-        <v>1.083207363060089</v>
+        <v>1.047172360252672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076091427762935</v>
+        <v>1.020948938415828</v>
       </c>
       <c r="D18">
-        <v>1.078347893918704</v>
+        <v>1.03881905524963</v>
       </c>
       <c r="E18">
-        <v>1.079964104083607</v>
+        <v>1.030361797853918</v>
       </c>
       <c r="F18">
-        <v>1.086945074366186</v>
+        <v>1.041829228148695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059704114404715</v>
+        <v>1.053218323290376</v>
       </c>
       <c r="J18">
-        <v>1.081940082820943</v>
+        <v>1.04724323056426</v>
       </c>
       <c r="K18">
-        <v>1.081532458317798</v>
+        <v>1.051999752978117</v>
       </c>
       <c r="L18">
-        <v>1.083143586282756</v>
+        <v>1.043676248817996</v>
       </c>
       <c r="M18">
-        <v>1.09010279442142</v>
+        <v>1.05496298901414</v>
       </c>
       <c r="N18">
-        <v>1.083476561838811</v>
+        <v>1.048730436072139</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.076209460941203</v>
+        <v>1.021630290515236</v>
       </c>
       <c r="D19">
-        <v>1.078444898174408</v>
+        <v>1.039373283685732</v>
       </c>
       <c r="E19">
-        <v>1.080078322136813</v>
+        <v>1.030998356095687</v>
       </c>
       <c r="F19">
-        <v>1.087052314934265</v>
+        <v>1.042429429424878</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059747541343637</v>
+        <v>1.053510206065497</v>
       </c>
       <c r="J19">
-        <v>1.082031701226114</v>
+        <v>1.04777031780349</v>
       </c>
       <c r="K19">
-        <v>1.081615487413619</v>
+        <v>1.052484222818922</v>
       </c>
       <c r="L19">
-        <v>1.083243799461302</v>
+        <v>1.044240848407154</v>
       </c>
       <c r="M19">
-        <v>1.090196155347464</v>
+        <v>1.055493034884901</v>
       </c>
       <c r="N19">
-        <v>1.083568310352625</v>
+        <v>1.049258271835706</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.075681458587114</v>
+        <v>1.018566000841403</v>
       </c>
       <c r="D20">
-        <v>1.078010950006632</v>
+        <v>1.036881142318495</v>
       </c>
       <c r="E20">
-        <v>1.079567409046683</v>
+        <v>1.028136096970447</v>
       </c>
       <c r="F20">
-        <v>1.086572606766711</v>
+        <v>1.039730789326011</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059553150525028</v>
+        <v>1.052196663497724</v>
       </c>
       <c r="J20">
-        <v>1.08162179929363</v>
+        <v>1.045399529364744</v>
       </c>
       <c r="K20">
-        <v>1.08124399535516</v>
+        <v>1.050305066224137</v>
       </c>
       <c r="L20">
-        <v>1.082795479255913</v>
+        <v>1.041701613891302</v>
       </c>
       <c r="M20">
-        <v>1.089778478151997</v>
+        <v>1.053109233235195</v>
       </c>
       <c r="N20">
-        <v>1.083157826312381</v>
+        <v>1.046884116605444</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073962548310367</v>
+        <v>1.008286545787862</v>
       </c>
       <c r="D21">
-        <v>1.076597967752451</v>
+        <v>1.028529410720913</v>
       </c>
       <c r="E21">
-        <v>1.077904538064054</v>
+        <v>1.018545215708498</v>
       </c>
       <c r="F21">
-        <v>1.085011188913585</v>
+        <v>1.030690970102676</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058918073949852</v>
+        <v>1.047775685997887</v>
       </c>
       <c r="J21">
-        <v>1.080286280284821</v>
+        <v>1.037441849504201</v>
       </c>
       <c r="K21">
-        <v>1.08003329146784</v>
+        <v>1.042989719003816</v>
       </c>
       <c r="L21">
-        <v>1.081335400563201</v>
+        <v>1.033183559814167</v>
       </c>
       <c r="M21">
-        <v>1.088417992827951</v>
+        <v>1.045113322409615</v>
       </c>
       <c r="N21">
-        <v>1.081820410713394</v>
+        <v>1.03891513592674</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072879974276459</v>
+        <v>1.001558505517068</v>
       </c>
       <c r="D22">
-        <v>1.075707869212168</v>
+        <v>1.023070589135605</v>
       </c>
       <c r="E22">
-        <v>1.076857571549815</v>
+        <v>1.012276941837608</v>
       </c>
       <c r="F22">
-        <v>1.084028016490507</v>
+        <v>1.024785388820777</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05851638669409</v>
+        <v>1.044871416978386</v>
       </c>
       <c r="J22">
-        <v>1.079444337444002</v>
+        <v>1.032230446146937</v>
       </c>
       <c r="K22">
-        <v>1.079269783248498</v>
+        <v>1.038198460988983</v>
       </c>
       <c r="L22">
-        <v>1.080415401877246</v>
+        <v>1.027609051283405</v>
       </c>
       <c r="M22">
-        <v>1.087560592986139</v>
+        <v>1.039881329776912</v>
       </c>
       <c r="N22">
-        <v>1.080977272217168</v>
+        <v>1.033696331778952</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073454043403871</v>
+        <v>1.00515179365458</v>
       </c>
       <c r="D23">
-        <v>1.076179890654432</v>
+        <v>1.025985247448641</v>
       </c>
       <c r="E23">
-        <v>1.07741272873158</v>
+        <v>1.015623781721688</v>
       </c>
       <c r="F23">
-        <v>1.084549354327212</v>
+        <v>1.027938312456325</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058729556392375</v>
+        <v>1.046423477902716</v>
       </c>
       <c r="J23">
-        <v>1.079890882741924</v>
+        <v>1.03501397390822</v>
       </c>
       <c r="K23">
-        <v>1.079674752572832</v>
+        <v>1.040757615536192</v>
       </c>
       <c r="L23">
-        <v>1.080903301578102</v>
+        <v>1.030586159373041</v>
       </c>
       <c r="M23">
-        <v>1.088015309469454</v>
+        <v>1.042675422688885</v>
       </c>
       <c r="N23">
-        <v>1.081424451660633</v>
+        <v>1.036483812468932</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.075710246040096</v>
+        <v>1.0187341645751</v>
       </c>
       <c r="D24">
-        <v>1.078034610499718</v>
+        <v>1.037017878691338</v>
       </c>
       <c r="E24">
-        <v>1.079595263249186</v>
+        <v>1.028293135125268</v>
       </c>
       <c r="F24">
-        <v>1.086598760142468</v>
+        <v>1.039878840980539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059563757429447</v>
+        <v>1.052268803984171</v>
       </c>
       <c r="J24">
-        <v>1.081644151831044</v>
+        <v>1.045529653279186</v>
       </c>
       <c r="K24">
-        <v>1.081264254591849</v>
+        <v>1.050424675862139</v>
       </c>
       <c r="L24">
-        <v>1.08281992448919</v>
+        <v>1.041840964623918</v>
       </c>
       <c r="M24">
-        <v>1.089801253308023</v>
+        <v>1.053240051815727</v>
       </c>
       <c r="N24">
-        <v>1.083180210592962</v>
+        <v>1.04701442531077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078320786026684</v>
+        <v>1.033477566605549</v>
       </c>
       <c r="D25">
-        <v>1.080179722194668</v>
+        <v>1.049018316562887</v>
       </c>
       <c r="E25">
-        <v>1.082121908088314</v>
+        <v>1.04207846912607</v>
       </c>
       <c r="F25">
-        <v>1.088970917168651</v>
+        <v>1.052879377468912</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060521516406877</v>
+        <v>1.058566731735356</v>
       </c>
       <c r="J25">
-        <v>1.083669158177244</v>
+        <v>1.056928515202754</v>
       </c>
       <c r="K25">
-        <v>1.083099013262059</v>
+        <v>1.060900523421153</v>
       </c>
       <c r="L25">
-        <v>1.085035639562294</v>
+        <v>1.054056890571197</v>
       </c>
       <c r="M25">
-        <v>1.091865214825236</v>
+        <v>1.064708745568542</v>
       </c>
       <c r="N25">
-        <v>1.085208092680445</v>
+        <v>1.058429474925737</v>
       </c>
     </row>
   </sheetData>
